--- a/src/main/resources/Tran_001_20250807_微信_ADD_003.xlsx
+++ b/src/main/resources/Tran_001_20250807_微信_ADD_003.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>总笔数</t>
   </si>
@@ -111,7 +111,7 @@
     <t>5000</t>
   </si>
   <si>
-    <t>Thu Aug 07 11:02:03 CST 2025</t>
+    <t>Thu Aug 07 15:48:23 CST 2025</t>
   </si>
   <si>
     <t>2025-04-01</t>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>{"extend1":"退货订单","extend2":"1","extend5":"VIP客户"}</t>
+  </si>
+  <si>
+    <t>9d783c99-bc69-4a8b-a4f4-d3d675e0ecc3</t>
   </si>
 </sst>
 </file>
@@ -222,7 +225,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -248,6 +251,7 @@
     <col min="18" max="18" width="20.0" customWidth="true"/>
     <col min="19" max="19" width="20.0" customWidth="true"/>
     <col min="20" max="20" width="20.0" customWidth="true"/>
+    <col min="21" max="21" hidden="true" width="8.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -373,6 +377,9 @@
       <c r="T2" t="s" s="0">
         <v>43</v>
       </c>
+      <c r="U2" t="s" s="0">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
